--- a/network33bus.xlsx
+++ b/network33bus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Thesis\energy-continuous\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Thesis\market-clearing-mechanisms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1492,15 +1492,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1549,20 +1549,8 @@
       <c r="H2">
         <v>4.5600000000000005</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>5.7525911617239307E-2</v>
-      </c>
-      <c r="O2">
-        <v>2.932448856844086E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1588,20 +1576,8 @@
       <c r="H3">
         <v>3.96</v>
       </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>0.30759516732428388</v>
-      </c>
-      <c r="O3">
-        <v>0.15666763999011701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1627,20 +1603,8 @@
       <c r="H4">
         <v>2.7600000000000002</v>
       </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>0.22835665566062455</v>
-      </c>
-      <c r="O4">
-        <v>0.11629967381185907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1666,20 +1630,8 @@
       <c r="H5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>0.23777792751984705</v>
-      </c>
-      <c r="O5">
-        <v>0.12110389853477384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1705,20 +1657,8 @@
       <c r="H6">
         <v>2.1</v>
       </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-      <c r="N6">
-        <v>0.51099481143729919</v>
-      </c>
-      <c r="O6">
-        <v>0.44111517910399334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1744,20 +1684,8 @@
       <c r="H7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>7</v>
-      </c>
-      <c r="N7">
-        <v>0.11679881404281126</v>
-      </c>
-      <c r="O7">
-        <v>0.38608496864151498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1783,20 +1711,8 @@
       <c r="H8">
         <v>0.9</v>
       </c>
-      <c r="L8">
-        <v>7</v>
-      </c>
-      <c r="M8">
-        <v>8</v>
-      </c>
-      <c r="N8">
-        <v>0.44386045037423039</v>
-      </c>
-      <c r="O8">
-        <v>0.14668483537107332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1822,20 +1738,8 @@
       <c r="H9">
         <v>0.7</v>
       </c>
-      <c r="L9">
-        <v>8</v>
-      </c>
-      <c r="M9">
-        <v>9</v>
-      </c>
-      <c r="N9">
-        <v>0.64264304735093802</v>
-      </c>
-      <c r="O9">
-        <v>0.46170471363077098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1861,20 +1765,8 @@
       <c r="H10">
         <v>0.7</v>
       </c>
-      <c r="L10">
-        <v>9</v>
-      </c>
-      <c r="M10">
-        <v>10</v>
-      </c>
-      <c r="N10">
-        <v>0.65137800139260127</v>
-      </c>
-      <c r="O10">
-        <v>0.46170471363077098</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1900,20 +1792,8 @@
       <c r="H11">
         <v>0.6</v>
       </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11">
-        <v>11</v>
-      </c>
-      <c r="N11">
-        <v>0.12266371175649943</v>
-      </c>
-      <c r="O11">
-        <v>4.055514376486502E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1939,20 +1819,8 @@
       <c r="H12">
         <v>0.6</v>
       </c>
-      <c r="L12">
-        <v>11</v>
-      </c>
-      <c r="M12">
-        <v>12</v>
-      </c>
-      <c r="N12">
-        <v>0.23359762808562251</v>
-      </c>
-      <c r="O12">
-        <v>7.7241950739850601E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1978,20 +1846,8 @@
       <c r="H13">
         <v>0.5</v>
       </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
-      <c r="M13">
-        <v>13</v>
-      </c>
-      <c r="N13">
-        <v>0.91592232379725913</v>
-      </c>
-      <c r="O13">
-        <v>0.72063370843721686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2017,20 +1873,8 @@
       <c r="H14">
         <v>0.4</v>
       </c>
-      <c r="L14">
-        <v>13</v>
-      </c>
-      <c r="M14">
-        <v>14</v>
-      </c>
-      <c r="N14">
-        <v>0.33791793635462913</v>
-      </c>
-      <c r="O14">
-        <v>0.44479633830726573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2056,20 +1900,8 @@
       <c r="H15">
         <v>0.30000000000000004</v>
       </c>
-      <c r="L15">
-        <v>14</v>
-      </c>
-      <c r="M15">
-        <v>15</v>
-      </c>
-      <c r="N15">
-        <v>0.36873984561592654</v>
-      </c>
-      <c r="O15">
-        <v>0.32818470185106152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2095,20 +1927,8 @@
       <c r="H16">
         <v>0.30000000000000004</v>
       </c>
-      <c r="L16">
-        <v>15</v>
-      </c>
-      <c r="M16">
-        <v>16</v>
-      </c>
-      <c r="N16">
-        <v>0.46563544294951942</v>
-      </c>
-      <c r="O16">
-        <v>0.34003928233617597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -2134,20 +1954,8 @@
       <c r="H17">
         <v>0.2</v>
       </c>
-      <c r="L17">
-        <v>16</v>
-      </c>
-      <c r="M17">
-        <v>17</v>
-      </c>
-      <c r="N17">
-        <v>0.80423969712170773</v>
-      </c>
-      <c r="O17">
-        <v>1.0737754218358877</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2173,20 +1981,8 @@
       <c r="H18">
         <v>0.1</v>
       </c>
-      <c r="L18">
-        <v>17</v>
-      </c>
-      <c r="M18">
-        <v>18</v>
-      </c>
-      <c r="N18">
-        <v>0.45671331132124909</v>
-      </c>
-      <c r="O18">
-        <v>0.35813311570819262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
@@ -2212,20 +2008,8 @@
       <c r="H19">
         <v>0.48</v>
       </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <v>19</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0.10232374734519789</v>
-      </c>
-      <c r="O19" s="3">
-        <v>9.7644307680021164E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
@@ -2251,20 +2035,8 @@
       <c r="H20">
         <v>0.30000000000000004</v>
       </c>
-      <c r="L20">
-        <v>19</v>
-      </c>
-      <c r="M20">
-        <v>20</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0.93850841924784556</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0.84566833629073912</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -2290,20 +2062,8 @@
       <c r="H21">
         <v>0.2</v>
       </c>
-      <c r="L21">
-        <v>20</v>
-      </c>
-      <c r="M21">
-        <v>21</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0.2554974057186496</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0.29848585810940653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -2329,20 +2089,8 @@
       <c r="H22">
         <v>0.1</v>
       </c>
-      <c r="L22">
-        <v>21</v>
-      </c>
-      <c r="M22">
-        <v>22</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0.44230063715250478</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0.58480517308935354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -2368,20 +2116,8 @@
       <c r="H23">
         <v>1.2</v>
       </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-      <c r="M23">
-        <v>23</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0.28151509025703225</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0.19235616650319826</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
@@ -2407,20 +2143,8 @@
       <c r="H24">
         <v>0.9</v>
       </c>
-      <c r="L24">
-        <v>23</v>
-      </c>
-      <c r="M24">
-        <v>24</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0.56028490924382746</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0.44242542221024278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
@@ -2446,20 +2170,8 @@
       <c r="H25">
         <v>0.5</v>
       </c>
-      <c r="L25">
-        <v>24</v>
-      </c>
-      <c r="M25">
-        <v>25</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0.55903705866644704</v>
-      </c>
-      <c r="O25" s="4">
-        <v>0.43743401990072095</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -2485,20 +2197,8 @@
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="L26">
-        <v>6</v>
-      </c>
-      <c r="M26">
-        <v>26</v>
-      </c>
-      <c r="N26">
-        <v>0.12665683360411692</v>
-      </c>
-      <c r="O26">
-        <v>6.4513874850569891E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -2524,20 +2224,8 @@
       <c r="H27">
         <v>0.9</v>
       </c>
-      <c r="L27">
-        <v>26</v>
-      </c>
-      <c r="M27">
-        <v>27</v>
-      </c>
-      <c r="N27">
-        <v>0.17731956704576368</v>
-      </c>
-      <c r="O27">
-        <v>9.0281989273476429E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2563,20 +2251,8 @@
       <c r="H28">
         <v>0.8</v>
       </c>
-      <c r="L28">
-        <v>27</v>
-      </c>
-      <c r="M28">
-        <v>28</v>
-      </c>
-      <c r="N28">
-        <v>0.66073688072295467</v>
-      </c>
-      <c r="O28">
-        <v>0.5825590420500687</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -2602,20 +2278,8 @@
       <c r="H29">
         <v>0.79999999999999993</v>
       </c>
-      <c r="L29">
-        <v>28</v>
-      </c>
-      <c r="M29">
-        <v>29</v>
-      </c>
-      <c r="N29">
-        <v>0.50176071716468384</v>
-      </c>
-      <c r="O29">
-        <v>0.43712205725637587</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -2641,20 +2305,8 @@
       <c r="H30">
         <v>0.7</v>
       </c>
-      <c r="L30">
-        <v>29</v>
-      </c>
-      <c r="M30">
-        <v>30</v>
-      </c>
-      <c r="N30">
-        <v>0.3166420840102922</v>
-      </c>
-      <c r="O30">
-        <v>0.16128468712642474</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -2680,20 +2332,8 @@
       <c r="H31">
         <v>0.5</v>
       </c>
-      <c r="L31">
-        <v>30</v>
-      </c>
-      <c r="M31">
-        <v>31</v>
-      </c>
-      <c r="N31">
-        <v>0.60795280129976115</v>
-      </c>
-      <c r="O31">
-        <v>0.60084005300869248</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -2719,20 +2359,8 @@
       <c r="H32">
         <v>0.30000000000000004</v>
       </c>
-      <c r="L32">
-        <v>31</v>
-      </c>
-      <c r="M32">
-        <v>32</v>
-      </c>
-      <c r="N32">
-        <v>0.19372880213831675</v>
-      </c>
-      <c r="O32">
-        <v>0.22579856197699461</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -2757,18 +2385,6 @@
       </c>
       <c r="H33">
         <v>0.1</v>
-      </c>
-      <c r="L33">
-        <v>32</v>
-      </c>
-      <c r="M33">
-        <v>33</v>
-      </c>
-      <c r="N33">
-        <v>0.21275852344336879</v>
-      </c>
-      <c r="O33">
-        <v>0.33080518806356052</v>
       </c>
     </row>
   </sheetData>
@@ -6609,18 +6225,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6643,6 +6259,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C68F2477-5D7C-46D2-9B0B-75CFA61665DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC2F392-B84E-45FF-B4FE-CDEA54B5998E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -6657,12 +6281,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C68F2477-5D7C-46D2-9B0B-75CFA61665DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/network33bus.xlsx
+++ b/network33bus.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="105">
   <si>
     <t>Bus</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>Lim</t>
+  </si>
+  <si>
+    <t>Modified</t>
   </si>
 </sst>
 </file>
@@ -1494,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:O1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,6 +1524,9 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2559,7 +2565,7 @@
   <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
